--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/uk_UA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/uk_UA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5218">
   <si>
     <t>translation_group</t>
   </si>
@@ -15625,12 +15625,6 @@
   </si>
   <si>
     <t xml:space="preserve"> повідомлення</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16017,17 +16011,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54674,18 +54668,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5202</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5203</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54695,10 +54681,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5204</v>
+        <v>5202</v>
       </c>
       <c r="D2763" t="s">
-        <v>5205</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54709,10 +54695,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="D2764" t="s">
-        <v>5207</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54723,10 +54709,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5208</v>
+        <v>5206</v>
       </c>
       <c r="D2765" t="s">
-        <v>5209</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54737,10 +54723,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5210</v>
+        <v>5208</v>
       </c>
       <c r="D2766" t="s">
-        <v>5211</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54751,10 +54737,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5212</v>
+        <v>5210</v>
       </c>
       <c r="D2767" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54765,10 +54751,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5214</v>
+        <v>5212</v>
       </c>
       <c r="D2768" t="s">
-        <v>5215</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54779,10 +54765,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5216</v>
+        <v>5214</v>
       </c>
       <c r="D2769" t="s">
-        <v>5217</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54821,11 +54807,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5218</v>
+        <v>5216</v>
       </c>
       <c r="D2772" t="s">
-        <v>5219</v>
-      </c>
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/uk_UA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/uk_UA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6202">
   <si>
     <t>translation_group</t>
   </si>
@@ -17732,6 +17732,909 @@
                                                     Подумайте про те, що ви як споживач хочете знати, а потім включіть ці характеристики у свій опис. Для одягу: матеріали та підгонка. Для їжі: інгредієнти та спосіб її приготування. Кулі - ваші друзі, коли перелічують
                                                    функції - спробуйте
                                                             обмежити кожну з них 5-8 словами.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Мова адміністратора</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Ліміт</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Редактор коду</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Блог</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>назви</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Заголовки 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Заголовки 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Заголовки 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Заголовки 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Назви 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Назви 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Заголовки 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Заголовки 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>текстовий блок</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Текстовий блок 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Текстовий блок 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Текстовий блок 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Текстовий блок 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Текстовий блок 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Текстовий блок 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Текстовий блок 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Текстовий блок 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Текстовий блок 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Текстовий блок 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Текстовий блок 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Текстовий блок 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Текстовий блок 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Текстовий блок 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Текстовий блок 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>особливості</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Особливості 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Особливості 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Особливості 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Особливості 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>сітки</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>меню</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Меню - скін-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Меню - скін-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Меню - скін-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Меню - скін-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Меню - скін-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>колонтитули</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Колонтитули 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Колонтитули 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Колонтитули 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Колонтитули 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>інший</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>джамботрон</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>Джамботрон 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>ціноутворення</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Ціна 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Макети за замовчуванням</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Тут немає вмісту</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Користувацькі поля збережено</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Існуючі поля</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Виберіть із наявних полів нижче</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Додайте нові поля</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Додайте нове користувацьке поле зі списку нижче</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Ваші поля</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Список доданих користувацьких полів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">повторити по вертикалі </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Сімейство шрифтів</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Накладення</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Режим змішування</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Контейнер</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Тип контейнера</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Анімації</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Перезавантаження стилів</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Посилання на</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Пакет попереднього перегляду</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Демо</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Використовуйте</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Поточний</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Змінити замовлення</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>система</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Перенаправлення браузера</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Інтеграція</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Автономний засіб оновлення</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Для встановлення цього пакета потрібен ліцензійний ключ</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Цей пакет є преміум-класом, і для його встановлення необхідно мати ліцензійний ключ</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Вам потрібен ліцензійний ключ</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Ліцензія активована</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Перезавантаження сторінки</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Ліцензія не активована</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>URL-адреса</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Оновлення системи</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Перевірте наявність оновлень системи</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Повернутися до списку</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Категорія повинна мати назву</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Чи прихована категорія?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Якщо встановити значення ТАК, ця категорія буде прихована на веб-сайті</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Згадуючи</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Ваш кошик порожній.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Результати знайдено</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Якщо ви виберете відсоток у полі вибору, він буде розраховано автоматично на основі ціни та ціни пропозиції продукту.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Перейдіть до оформлення замовлення</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Відображення</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>з</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>результат(и)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Заголовок сторінки - Права хлібна крихта</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Заголовок сторінки - Ліва хлібна крихта</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Умови використання</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Доставка та повернення</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Близько 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Близько 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Близько 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Дім 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Дім 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Щоб змінити шаблон, потрібно натиснути кнопку застосувати шаблон</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Пошук за критеріями</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Дата з</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Встановіть замовлення з дати</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Дата до</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Встановіть замовлення на дату</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Сума замовлення від</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Покажіть замовлення з мінімальною сумою</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Сума замовлення до</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Показати замовлення з максимальною сумою</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Пошук за продуктами...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Пошук за продуктами</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Статус платежу</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Безкоштовний пошук по телефону, імені, електронній пошті тощо...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Подайте цей критерій</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Скинути фільтр</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Експортувати все</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Виберіть сортування</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Дата замовлення</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Новий &gt; Старий]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Старий &gt; Новий]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Високий &gt; Низький]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Низький &gt; Високий]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Замовлення виконано</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>у вашій базі даних знайдено переклади з багатомовного модуля.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>УВАГА! Зміна мови за замовчуванням може призвести до порушення перекладів на вашому сайті.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Ви впевнені, що хочете продовжити?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>УВАГА! Зміна мови за замовчуванням може пошкодити ваш сайт.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Деталі доставки</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>замовлення ще не виконано</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>замовлення виконано</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Створено в</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Оновлено о</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швидкий перегляд </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Замініть мовні значення</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Переклади імпортуються</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перекладів не знайдено в базі даних. Бажаєте імпортувати переклади? </t>
   </si>
 </sst>
 </file>
@@ -17755,10 +18658,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17769,7 +18669,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18070,7 +18970,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70132,8 +71032,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6020</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6080</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6082</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6083</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5898</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6092</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6093</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6093</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6109</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6110</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6123</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6125</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6127</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6128</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6129</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6130</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6132</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6136</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6140</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6144</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6145</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6146</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6150</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6152</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6159</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6160</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6161</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6162</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6164</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6165</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6166</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6167</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6168</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6169</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6170</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6171</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6172</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6173</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6174</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6176</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6177</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6178</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6179</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6180</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6181</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6182</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6184</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4361</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6186</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6187</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6188</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6189</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6190</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6191</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6192</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6193</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6194</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6195</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6196</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6197</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6198</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6199</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6200</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6201</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70145,5 +73679,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/uk_UA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/uk_UA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6013">
   <si>
     <t>translation_group</t>
   </si>
@@ -10214,7 +10214,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Заповніть поля для отримання максимальних результатів при пошуку вашого веб-сайту в пошукових системах.</t>
+    <t>Заповніть поля для отримання максимального результату при пошуку вашого сайту в пошукових системах.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17145,22 +17145,25 @@
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Використовуйте Microweber для створення свого веб-сайту, інтернет-магазину чи блогу.</t>
+    <t>Використовуйте Microweber, щоб створити свій веб-сайт, інтернет-магазин або блог.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>Створюйте та редагуйте вміст, продавайте в Інтернеті, керуйте замовленнями та клієнтами.</t>
+    <t>Створюйте та редагуйте контент, продавайте онлайн, керуйте замовленнями та клієнтами.</t>
   </si>
   <si>
     <t>Remove</t>
   </si>
   <si>
+    <t>видалити</t>
+  </si>
+  <si>
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Покинуті візки</t>
+    <t>Покинутий візок</t>
   </si>
   <si>
     <t>You are using this template.</t>
@@ -17172,49 +17175,49 @@
     <t>The change will affect only the current page.</t>
   </si>
   <si>
-    <t>Зміна торкнеться лише поточної сторінки.</t>
+    <t>Зміна вплине лише на поточну сторінку.</t>
   </si>
   <si>
     <t>Allow multiple templates</t>
   </si>
   <si>
-    <t>Дозволити декілька шаблонів</t>
+    <t>Дозволити кілька шаблонів</t>
   </si>
   <si>
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Якщо ви дозволите кілька шаблонів, ви зможете використовувати різні шаблони під час створення нових сторінок.</t>
+    <t>Якщо ви дозволите використовувати кілька шаблонів, ви зможете використовувати різні шаблони під час створення нових сторінок.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>Налаштування веб-сайту системи електронної пошти</t>
+    <t>Системні параметри сайту електронної пошти</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Доставка повідомлень, пов’язаних з новою реєстрацією, скиданням паролів та іншими функціональними можливостями системи.</t>
+    <t>Доставляйте повідомлення, пов’язані з новою реєстрацією, скиданням пароля та іншими функціями системи.</t>
   </si>
   <si>
     <t>From e-mail address</t>
   </si>
   <si>
-    <t>З електронної адреси</t>
+    <t>З адреси електронної пошти</t>
   </si>
   <si>
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Напр. Назва вашого веб-сайту</t>
+    <t>Пр. Назва вашого веб-сайту</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>Загальні налаштування постачальника послуг електронної пошти</t>
+    <t>Загальні налаштування провайдера електронної пошти</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
@@ -17226,19 +17229,19 @@
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Загальний постачальник послуг електронної пошти доставить усі повідомлення, пов’язані з веб-сайтом. Включаючи системні повідомлення та повідомлення контактної форми.</t>
+    <t>Загальний постачальник послуг електронної пошти доставлятиме всі повідомлення, пов’язані з веб-сайтом. Включаючи системні повідомлення та повідомлення контактної форми.</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Логотип веб-сайту</t>
+    <t>Логотип сайту</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>Виберіть логотип для свого веб-сайту.</t>
+    <t>Виберіть логотип для свого сайту.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17250,13 +17253,13 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Фавікон веб-сайту</t>
+    <t>Фавікон сайту</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Зміна мови за замовчуванням ..</t>
+    <t>Зміна мови за умовчанням..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17268,37 +17271,37 @@
     <t>Install Multilanguage Module</t>
   </si>
   <si>
-    <t>Встановіть багатомовний модуль</t>
+    <t>Встановити багатомовний модуль</t>
   </si>
   <si>
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>Користувачі можуть реєструватися за допомогою тимчасових електронних листів, таких як - Mailinator, MailDrop, Guerrilla ... s</t>
+    <t>Користувачі можуть зареєструватися з тимчасовими електронними адресами, такими як - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Користувачі реєстрації можуть автоматично отримувати від вас автоматичний електронний лист. Перегляньте налаштування та опублікуйте свої повідомлення.</t>
+    <t>Зареєстровані користувачі можуть автоматично отримувати від вас електронні листи. Перегляньте налаштування та опублікуйте свої повідомлення.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Надіслати електронною поштою реєстрацію нового користувача адміністраторам</t>
+    <t>Надсилати електронний лист про реєстрацію нового користувача адміністраторам</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Ви хочете, щоб адміністратори отримували повідомлення електронної пошти при реєстрації нового користувача?</t>
+    <t>Чи бажаєте ви, щоб адміністратори отримували повідомлення електронною поштою, коли реєструється новий користувач?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber - це безкоштовний конструктор веб-сайтів із системою перетягування та управління вмістом із відкритим кодом. Це під ліцензією MIT, і ми використовуємо фреймворк Laravel PHP</t>
+    <t>Microweber — це безкоштовний конструктор веб-сайтів і CMS з відкритим вихідним кодом. Він знаходиться під ліцензією MIT, і ми використовуємо фреймворк Laravel PHP</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17313,7 +17316,7 @@
     <t>Pickup from address</t>
   </si>
   <si>
-    <t>Приймання з адреси</t>
+    <t>Самовивіз з адреси</t>
   </si>
   <si>
     <t>Global settings</t>
@@ -17331,25 +17334,25 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>У вас немає системної електронної пошти та налаштування SMTP.</t>
+    <t>У вас не налаштовано системну електронну пошту та smtp.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Налаштуйте тут свої системні налаштування.</t>
+    <t>Налаштуйте налаштування системи тут.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>Налаштування глобальної контактної форми</t>
+    <t>Глобальні налаштування контактної форми</t>
   </si>
   <si>
     <t>E-mail sending options</t>
   </si>
   <si>
-    <t>Параметри надсилання електронної пошти</t>
+    <t>Параметри надсилання електронною поштою</t>
   </si>
   <si>
     <t>Global sender</t>
@@ -17361,25 +17364,25 @@
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>Використовуйте власні налаштування відправника</t>
+    <t>Використовуйте спеціальні налаштування відправника</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Використовуйте власні налаштування відправника для глобальних контактних форм.</t>
+    <t>Використовуйте спеціальні налаштування відправника для глобальних контактних форм.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>За замовчуванням ми використовуватимемо налаштування електронної пошти системи веб-сайту.</t>
+    <t>За замовчуванням ми будемо використовувати налаштування електронної пошти системи веб-сайту.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>Ви можете змінити системні налаштування електронної пошти тут.</t>
+    <t>Тут можна змінити системні параметри електронної пошти.</t>
   </si>
   <si>
     <t>Global Receivers</t>
@@ -17391,19 +17394,19 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Надсилати дані контактних форм глобальним одержувачам, коли вони надсилаються</t>
+    <t>Надсилати дані контактних форм глобальним одержувачам після надсилання</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
   </si>
   <si>
-    <t>На електронні адреси</t>
+    <t>На адреси електронної пошти</t>
   </si>
   <si>
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Адреса електронної пошти одержувачів, розділених комою.</t>
+    <t>Адреси електронної пошти одержувачів через кому.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
@@ -17433,12 +17436,12 @@
     <t>Remove favicon</t>
   </si>
   <si>
+    <t>Видалити фавікон</t>
+  </si>
+  <si>
     <t>Custom</t>
   </si>
   <si>
-    <t>На замовлення</t>
-  </si>
-  <si>
     <t>bxSlider</t>
   </si>
   <si>
@@ -17448,13 +17451,13 @@
     <t>ProductsV2</t>
   </si>
   <si>
-    <t>Вироби V2</t>
+    <t>Продукти V2</t>
   </si>
   <si>
     <t>Timeline</t>
   </si>
   <si>
-    <t>Часова шкала</t>
+    <t>Хронологія</t>
   </si>
   <si>
     <t>White label WHMCS</t>
@@ -17469,6 +17472,9 @@
     <t>Module template has changed</t>
   </si>
   <si>
+    <t>Шаблон модуля змінено</t>
+  </si>
+  <si>
     <t>Content versions</t>
   </si>
   <si>
@@ -17481,13 +17487,13 @@
     <t>Default layouts and elements</t>
   </si>
   <si>
-    <t>Макети та елементи за замовчуванням</t>
+    <t>Типові макети та елементи</t>
   </si>
   <si>
     <t>Arrows List</t>
   </si>
   <si>
-    <t>Список стрілок</t>
+    <t>Список зі стрілками</t>
   </si>
   <si>
     <t>Checked List</t>
@@ -17505,13 +17511,13 @@
     <t>Title with Text</t>
   </si>
   <si>
-    <t>Заголовок із текстом</t>
+    <t>Назва з текстом</t>
   </si>
   <si>
     <t>Icon with Text</t>
   </si>
   <si>
-    <t>Значок з текстом</t>
+    <t>Піктограма з текстом</t>
   </si>
   <si>
     <t>Two Text Columns</t>
@@ -17523,19 +17529,19 @@
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>Два текстові стовпці з піктограмою та заголовком</t>
+    <t>Дві текстові колонки з іконкою та заголовком</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
   </si>
   <si>
-    <t>Зображення із заголовком та текстом</t>
+    <t>Зображення із заголовком і текстом</t>
   </si>
   <si>
     <t>Text with Image and Title</t>
   </si>
   <si>
-    <t>Текст із зображенням та заголовком</t>
+    <t>Текст із зображенням і заголовком</t>
   </si>
   <si>
     <t>Text with Image</t>
@@ -17550,19 +17556,19 @@
     <t>Captcha settings</t>
   </si>
   <si>
-    <t>Налаштування капчі</t>
+    <t>Налаштування Captcha</t>
   </si>
   <si>
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Налаштуйте свої налаштування капчі з </t>
+    <t xml:space="preserve">Налаштуйте свої параметри captcha з </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
-    <t>Додавання / редагування полів форми за допомогою власних полів</t>
+    <t>Додавання/редагування полів форми за допомогою спеціальних полів</t>
   </si>
   <si>
     <t>Current contact form settings</t>
@@ -17592,79 +17598,85 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Надсилати дані контактної форми користувацьким одержувачам, коли вони надсилаються</t>
+    <t>Надіслати дані контактної форми користувальницьким отримувачам після надсилання</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Використовуйте власні налаштування приймачів для поточної форми контакту.</t>
+    <t>Використовуйте спеціальні налаштування отримувачів для поточної контактної форми.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>За замовчуванням ми використовуватимемо загальні налаштування форми контакту.</t>
+    <t>За замовчуванням ми будемо використовувати глобальні налаштування контактної форми.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>Ви можете змінити загальні налаштування форми контакту тут.</t>
+    <t>Ви можете змінити глобальні налаштування контактної форми тут.</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Автоматична відповідь повідомлення користувачеві</t>
+    <t>Автоматична відповідь на повідомлення користувачеві</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Увімкнути повідомлення користувача з автоматичною відповіддю</t>
+    <t>Увімкнути автоматичну відповідь на повідомлення користувачеві</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Дозволити користувачам отримувати "Листи подяки після підписки".</t>
+    <t>Дозволити користувачам отримувати листи з подякою після підписки.</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Автоматична відповідь об'єкта</t>
+    <t>Тема автоматичної відповіді</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
+    <t>Автоматичні відповіді дозволяють налаштувати автоматичні відповіді на вхідну електронну пошту</t>
+  </si>
+  <si>
     <t>Auto respond message</t>
   </si>
   <si>
-    <t>Автоматична відповідь на повідомлення</t>
+    <t>Повідомлення автоматичної відповіді</t>
   </si>
   <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
+    <t>Користувачеві надіслано електронний лист із автоматичною відповіддю</t>
+  </si>
+  <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Автовідповідь користувацького відправника</t>
+    <t>Автоматична відповідь на власний відправник</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>Використовуйте власні налаштування відправника для поточної форми контакту.</t>
+    <t>Використовуйте спеціальні налаштування відправника для поточної контактної форми.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
   </si>
   <si>
-    <t>Автоматична відповідь з електронної адреси</t>
+    <t>Автоматична відповідь з адреси електронної пошти</t>
   </si>
   <si>
     <t>Auto respond from name</t>
@@ -17682,37 +17694,37 @@
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Коли користувач отримує повідомлення про автоматичну відповідь, він може відповісти у відповідь на електронну пошту.</t>
+    <t>Коли користувач отримує повідомлення автоматичної відповіді, він може відповісти, щоб відповісти на електронний лист.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Автоматично відповідати на вкладення електронної пошти</t>
+    <t>Автоматична відповідь на вкладення електронної пошти</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Якщо ви хочете вкласти зображення, ви повинні завантажити їх у галерею з "Додати медіа"</t>
+    <t>Якщо ви хочете прикріпити og зображення, ви повинні завантажити їх у галерею з «Додати медіа»</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>У вас ще немає жодної публікації</t>
+    <t>У вас ще немає публікацій</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Створіть свою першу публікацію прямо зараз.</t>
+    <t>Створіть свій перший пост прямо зараз.</t>
   </si>
   <si>
     <t>Create a Post</t>
   </si>
   <si>
-    <t>Створити публікацію</t>
+    <t>Створити допис</t>
   </si>
   <si>
     <t>templates-new-world</t>
@@ -17726,11 +17738,11 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>Як писати описи товарів, що продаються
-                                                    Однією з найкращих речей, які ви можете зробити, щоб ваш магазин був успішним, є витратити трохи часу на написання чудових описів товарів. Ви хочете надати детальну, але коротку інформацію, яка спонукає потенційних клієнтів купувати.
+    <t>Як написати опис продукту, який продає
+                                                    Однією з найкращих речей, які ви можете зробити, щоб зробити свій магазин успішним, є витратити час на написання чудових описів продукту. Ви хочете надати детальну, але стислу інформацію, яка спонукатиме потенційних клієнтів до покупки.
                                                     Думайте як споживач
-                                                    Подумайте про те, що ви як споживач хочете знати, а потім включіть ці характеристики у свій опис. Для одягу: матеріали та підгонка. Для їжі: інгредієнти та спосіб її приготування. Кулі - ваші друзі, коли перелічують
-                                                   функції - спробуйте
+                                                    Подумайте про те, що ви, як споживач, хотіли б знати, а потім додайте ці функції до свого опису. Для одягу: матеріали та посадка. Для їжі: інгредієнти та спосіб приготування. Маркери є вашими друзями, коли ви перераховуєте
+                                                   функції — спробуйте
                                                             обмежити кожну з них 5-8 словами.</t>
   </si>
   <si>
@@ -17740,364 +17752,280 @@
     <t>Мова адміністратора</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Додати пост</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Додати підсторінку</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Категорію видалено</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Вміст видалено</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Категорії пошуку</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Створюйте контент</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>картка</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Будь-який</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Ліміт</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Ви дійсно хочете видалити?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Повертатися до</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Користувацькі поля збережено</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Існуючі поля</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Виберіть із наявних полів нижче</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Додайте нові поля</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Додайте нове спеціальне поле зі списку нижче</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Ваші поля</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Список доданих вами спеціальних полів</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Запас</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>система</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Блог</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Перенаправлення браузера</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Інтеграція</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Інструмент імпорту експорту</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Автономний засіб оновлення</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Пакет попереднього перегляду</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Демо</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>використання</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>поточний</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Експрес</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Перший клас</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Натисніть і заберіть</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Відео фон</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>Багатомовність</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Ви можете активувати багатомовний модуль для використання кількох мов</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Багатомовний режим</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Активуйте багатомовний режим, щоб мати кілька мов для свого вмісту.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Переклади імпортовані</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переклади не знайдено в базі даних. Бажаєте імпортувати переклади? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Ваш кошик порожній.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Редактор коду</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>Блог</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>назви</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Заголовки 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Заголовки 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Заголовки 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Заголовки 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Назви 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Назви 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Заголовки 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Заголовки 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>текстовий блок</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Текстовий блок 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Текстовий блок 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Текстовий блок 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Текстовий блок 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Текстовий блок 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Текстовий блок 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Текстовий блок 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Текстовий блок 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Текстовий блок 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Текстовий блок 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Текстовий блок 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Текстовий блок 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Текстовий блок 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Текстовий блок 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Текстовий блок 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>особливості</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Особливості 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Особливості 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Особливості 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Особливості 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>сітки</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>меню</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Меню - скін-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Меню - скін-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Меню - скін-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Меню - скін-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Меню - скін-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>колонтитули</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Колонтитули 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Колонтитули 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Колонтитули 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Колонтитули 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>інший</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>джамботрон</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>Джамботрон 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>ціноутворення</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Ціна 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
-    <t>Макети за замовчуванням</t>
-  </si>
-  <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Тут немає вмісту</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Користувацькі поля збережено</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Існуючі поля</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Виберіть із наявних полів нижче</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Додайте нові поля</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Додайте нове користувацьке поле зі списку нижче</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Ваші поля</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Список доданих користувацьких полів</t>
+    <t>Типові макети</t>
+  </si>
+  <si>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Новий імпорт</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
   </si>
   <si>
-    <t xml:space="preserve">повторити по вертикалі </t>
+    <t xml:space="preserve">повторити вертикально </t>
   </si>
   <si>
     <t>Font Family</t>
@@ -18109,7 +18037,7 @@
     <t>Overlay</t>
   </si>
   <si>
-    <t>Накладення</t>
+    <t>Накладання</t>
   </si>
   <si>
     <t>Blend mode</t>
@@ -18133,508 +18061,13 @@
     <t>Animations</t>
   </si>
   <si>
-    <t>Анімації</t>
+    <t>анімації</t>
   </si>
   <si>
     <t>Reloading styles</t>
   </si>
   <si>
     <t>Перезавантаження стилів</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Посилання на</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Пакет попереднього перегляду</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Демо</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Використовуйте</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Поточний</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Змінити замовлення</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>система</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Перенаправлення браузера</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Інтеграція</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Автономний засіб оновлення</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Для встановлення цього пакета потрібен ліцензійний ключ</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Цей пакет є преміум-класом, і для його встановлення необхідно мати ліцензійний ключ</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Вам потрібен ліцензійний ключ</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Ліцензія активована</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Перезавантаження сторінки</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Ліцензія не активована</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>URL-адреса</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Оновлення системи</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Перевірте наявність оновлень системи</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Повернутися до списку</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Категорія повинна мати назву</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Чи прихована категорія?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Якщо встановити значення ТАК, ця категорія буде прихована на веб-сайті</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Згадуючи</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Ваш кошик порожній.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Результати знайдено</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Якщо ви виберете відсоток у полі вибору, він буде розраховано автоматично на основі ціни та ціни пропозиції продукту.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Перейдіть до оформлення замовлення</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Відображення</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>з</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>результат(и)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Заголовок сторінки - Права хлібна крихта</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Заголовок сторінки - Ліва хлібна крихта</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Умови використання</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Доставка та повернення</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Близько 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Близько 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Близько 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Дім 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Дім 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Щоб змінити шаблон, потрібно натиснути кнопку застосувати шаблон</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Пошук за критеріями</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Дата з</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Встановіть замовлення з дати</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Дата до</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Встановіть замовлення на дату</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Сума замовлення від</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Покажіть замовлення з мінімальною сумою</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Сума замовлення до</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Показати замовлення з максимальною сумою</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Пошук за продуктами...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Пошук за продуктами</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Статус платежу</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Безкоштовний пошук по телефону, імені, електронній пошті тощо...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Подайте цей критерій</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Скинути фільтр</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Експортувати все</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Виберіть сортування</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Дата замовлення</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Новий &gt; Старий]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Старий &gt; Новий]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Високий &gt; Низький]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Низький &gt; Високий]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Замовлення виконано</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>у вашій базі даних знайдено переклади з багатомовного модуля.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>УВАГА! Зміна мови за замовчуванням може призвести до порушення перекладів на вашому сайті.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Ви впевнені, що хочете продовжити?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>УВАГА! Зміна мови за замовчуванням може пошкодити ваш сайт.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Деталі доставки</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>замовлення ще не виконано</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>замовлення виконано</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Створено в</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Оновлено о</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швидкий перегляд </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Замініть мовні значення</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Переклади імпортуються</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перекладів не знайдено в базі даних. Бажаєте імпортувати переклади? </t>
   </si>
 </sst>
 </file>
@@ -18970,7 +18403,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69343,7 +68776,7 @@
         <v>5711</v>
       </c>
       <c r="D2963" t="s">
-        <v>2880</v>
+        <v>5712</v>
       </c>
       <c r="E2963" t="s">
         <v>8</v>
@@ -69357,10 +68790,10 @@
         <v>5</v>
       </c>
       <c r="C2964" t="s">
-        <v>5712</v>
+        <v>5713</v>
       </c>
       <c r="D2964" t="s">
-        <v>5713</v>
+        <v>5714</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69374,10 +68807,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
-        <v>5714</v>
+        <v>5715</v>
       </c>
       <c r="D2965" t="s">
-        <v>5715</v>
+        <v>5716</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69391,10 +68824,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
-        <v>5716</v>
+        <v>5717</v>
       </c>
       <c r="D2966" t="s">
-        <v>5717</v>
+        <v>5718</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69408,10 +68841,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
-        <v>5718</v>
+        <v>5719</v>
       </c>
       <c r="D2967" t="s">
-        <v>5719</v>
+        <v>5720</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69425,10 +68858,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
-        <v>5720</v>
+        <v>5721</v>
       </c>
       <c r="D2968" t="s">
-        <v>5721</v>
+        <v>5722</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69442,10 +68875,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
-        <v>5722</v>
+        <v>5723</v>
       </c>
       <c r="D2969" t="s">
-        <v>5723</v>
+        <v>5724</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69459,10 +68892,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
-        <v>5724</v>
+        <v>5725</v>
       </c>
       <c r="D2970" t="s">
-        <v>5725</v>
+        <v>5726</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69476,10 +68909,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
-        <v>5726</v>
+        <v>5727</v>
       </c>
       <c r="D2971" t="s">
-        <v>5727</v>
+        <v>5728</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69493,10 +68926,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
-        <v>5728</v>
+        <v>5729</v>
       </c>
       <c r="D2972" t="s">
-        <v>5729</v>
+        <v>5730</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69510,10 +68943,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
-        <v>5730</v>
+        <v>5731</v>
       </c>
       <c r="D2973" t="s">
-        <v>5731</v>
+        <v>5732</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69527,10 +68960,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
-        <v>5732</v>
+        <v>5733</v>
       </c>
       <c r="D2974" t="s">
-        <v>5733</v>
+        <v>5734</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69544,10 +68977,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
-        <v>5734</v>
+        <v>5735</v>
       </c>
       <c r="D2975" t="s">
-        <v>5735</v>
+        <v>5736</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69561,10 +68994,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
-        <v>5736</v>
+        <v>5737</v>
       </c>
       <c r="D2976" t="s">
-        <v>5737</v>
+        <v>5738</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69578,10 +69011,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
-        <v>5738</v>
+        <v>5739</v>
       </c>
       <c r="D2977" t="s">
-        <v>5739</v>
+        <v>5740</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69595,10 +69028,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
-        <v>5740</v>
+        <v>5741</v>
       </c>
       <c r="D2978" t="s">
-        <v>5741</v>
+        <v>5742</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69612,10 +69045,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
-        <v>5742</v>
+        <v>5743</v>
       </c>
       <c r="D2979" t="s">
-        <v>5743</v>
+        <v>5744</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69629,10 +69062,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
-        <v>5744</v>
+        <v>5745</v>
       </c>
       <c r="D2980" t="s">
-        <v>5745</v>
+        <v>5746</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69646,10 +69079,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
-        <v>5746</v>
+        <v>5747</v>
       </c>
       <c r="D2981" t="s">
-        <v>5747</v>
+        <v>5748</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69663,10 +69096,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
-        <v>5748</v>
+        <v>5749</v>
       </c>
       <c r="D2982" t="s">
-        <v>5749</v>
+        <v>5750</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69680,10 +69113,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
-        <v>5750</v>
+        <v>5751</v>
       </c>
       <c r="D2983" t="s">
-        <v>5751</v>
+        <v>5752</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69697,10 +69130,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5752</v>
+        <v>5753</v>
       </c>
       <c r="D2984" t="s">
-        <v>5753</v>
+        <v>5754</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69714,10 +69147,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5754</v>
+        <v>5755</v>
       </c>
       <c r="D2985" t="s">
-        <v>5755</v>
+        <v>5756</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69731,10 +69164,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5756</v>
+        <v>5757</v>
       </c>
       <c r="D2986" t="s">
-        <v>5757</v>
+        <v>5758</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69748,10 +69181,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5758</v>
+        <v>5759</v>
       </c>
       <c r="D2987" t="s">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69765,7 +69198,7 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5760</v>
+        <v>5761</v>
       </c>
       <c r="D2988" t="s">
         <v>651</v>
@@ -69782,10 +69215,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5761</v>
+        <v>5762</v>
       </c>
       <c r="D2989" t="s">
-        <v>5762</v>
+        <v>5763</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69799,10 +69232,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5763</v>
+        <v>5764</v>
       </c>
       <c r="D2990" t="s">
-        <v>5764</v>
+        <v>5765</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69816,10 +69249,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5765</v>
+        <v>5766</v>
       </c>
       <c r="D2991" t="s">
-        <v>5766</v>
+        <v>5767</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69833,10 +69266,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5767</v>
+        <v>5768</v>
       </c>
       <c r="D2992" t="s">
-        <v>5768</v>
+        <v>5769</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69850,10 +69283,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5769</v>
+        <v>5770</v>
       </c>
       <c r="D2993" t="s">
-        <v>5770</v>
+        <v>5771</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69867,10 +69300,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5771</v>
+        <v>5772</v>
       </c>
       <c r="D2994" t="s">
-        <v>5772</v>
+        <v>5773</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69884,10 +69317,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5773</v>
+        <v>5774</v>
       </c>
       <c r="D2995" t="s">
-        <v>5774</v>
+        <v>5775</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69901,10 +69334,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="D2996" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69918,10 +69351,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="D2997" t="s">
-        <v>5778</v>
+        <v>5779</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69935,10 +69368,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5779</v>
+        <v>5780</v>
       </c>
       <c r="D2998" t="s">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69952,10 +69385,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5781</v>
+        <v>5782</v>
       </c>
       <c r="D2999" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69969,10 +69402,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5783</v>
+        <v>5784</v>
       </c>
       <c r="D3000" t="s">
-        <v>5784</v>
+        <v>5785</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69986,10 +69419,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5785</v>
+        <v>5786</v>
       </c>
       <c r="D3001" t="s">
-        <v>5786</v>
+        <v>5787</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -70003,10 +69436,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5787</v>
+        <v>5788</v>
       </c>
       <c r="D3002" t="s">
-        <v>5788</v>
+        <v>5789</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -70020,10 +69453,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5789</v>
+        <v>5790</v>
       </c>
       <c r="D3003" t="s">
-        <v>5790</v>
+        <v>5791</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -70037,10 +69470,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5791</v>
+        <v>5792</v>
       </c>
       <c r="D3004" t="s">
-        <v>5792</v>
+        <v>5793</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -70054,10 +69487,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5793</v>
+        <v>5794</v>
       </c>
       <c r="D3005" t="s">
-        <v>5794</v>
+        <v>5795</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -70071,10 +69504,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5795</v>
+        <v>5796</v>
       </c>
       <c r="D3006" t="s">
-        <v>5796</v>
+        <v>5797</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -70088,10 +69521,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="D3007" t="s">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -70105,10 +69538,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="D3008" t="s">
-        <v>5800</v>
+        <v>5801</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -70122,10 +69555,10 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="D3009" t="s">
-        <v>5802</v>
+        <v>5803</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -70139,10 +69572,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5803</v>
+        <v>5804</v>
       </c>
       <c r="D3010" t="s">
-        <v>3079</v>
+        <v>5805</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70156,10 +69589,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5804</v>
+        <v>5806</v>
       </c>
       <c r="D3011" t="s">
-        <v>5805</v>
+        <v>5806</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70173,10 +69606,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="D3012" t="s">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70190,10 +69623,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="D3013" t="s">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70207,10 +69640,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5808</v>
+        <v>5809</v>
       </c>
       <c r="D3014" t="s">
-        <v>5809</v>
+        <v>5810</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70224,10 +69657,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5810</v>
+        <v>5811</v>
       </c>
       <c r="D3015" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70241,10 +69674,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5812</v>
+        <v>5813</v>
       </c>
       <c r="D3016" t="s">
-        <v>5813</v>
+        <v>5814</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70258,7 +69691,7 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5814</v>
+        <v>5815</v>
       </c>
       <c r="D3017" t="s">
         <v>3336</v>
@@ -70275,10 +69708,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5815</v>
+        <v>5816</v>
       </c>
       <c r="D3018" t="s">
-        <v>2909</v>
+        <v>5817</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70292,10 +69725,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5816</v>
+        <v>5818</v>
       </c>
       <c r="D3019" t="s">
-        <v>5817</v>
+        <v>5819</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70309,7 +69742,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5818</v>
+        <v>5820</v>
       </c>
       <c r="D3020" t="s">
         <v>1574</v>
@@ -70326,10 +69759,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5819</v>
+        <v>5821</v>
       </c>
       <c r="D3021" t="s">
-        <v>5820</v>
+        <v>5822</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70343,10 +69776,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5821</v>
+        <v>5823</v>
       </c>
       <c r="D3022" t="s">
-        <v>5822</v>
+        <v>5824</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70360,10 +69793,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5823</v>
+        <v>5825</v>
       </c>
       <c r="D3023" t="s">
-        <v>5824</v>
+        <v>5826</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70377,10 +69810,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5825</v>
+        <v>5827</v>
       </c>
       <c r="D3024" t="s">
-        <v>5826</v>
+        <v>5828</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70394,10 +69827,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5827</v>
+        <v>5829</v>
       </c>
       <c r="D3025" t="s">
-        <v>5828</v>
+        <v>5830</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70411,10 +69844,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5829</v>
+        <v>5831</v>
       </c>
       <c r="D3026" t="s">
-        <v>5830</v>
+        <v>5832</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70428,10 +69861,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5831</v>
+        <v>5833</v>
       </c>
       <c r="D3027" t="s">
-        <v>5832</v>
+        <v>5834</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70445,10 +69878,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5833</v>
+        <v>5835</v>
       </c>
       <c r="D3028" t="s">
-        <v>5834</v>
+        <v>5836</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70462,10 +69895,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5835</v>
+        <v>5837</v>
       </c>
       <c r="D3029" t="s">
-        <v>5836</v>
+        <v>5838</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70479,10 +69912,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5837</v>
+        <v>5839</v>
       </c>
       <c r="D3030" t="s">
-        <v>5838</v>
+        <v>5840</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70496,7 +69929,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5839</v>
+        <v>5841</v>
       </c>
       <c r="D3031" t="s">
         <v>1127</v>
@@ -70513,10 +69946,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5840</v>
+        <v>5842</v>
       </c>
       <c r="D3032" t="s">
-        <v>5841</v>
+        <v>5843</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70530,10 +69963,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5842</v>
+        <v>5844</v>
       </c>
       <c r="D3033" t="s">
-        <v>5843</v>
+        <v>5845</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70547,10 +69980,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5844</v>
+        <v>5846</v>
       </c>
       <c r="D3034" t="s">
-        <v>5845</v>
+        <v>5847</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70564,10 +69997,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5846</v>
+        <v>5848</v>
       </c>
       <c r="D3035" t="s">
-        <v>5847</v>
+        <v>5849</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70581,10 +70014,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="D3036" t="s">
-        <v>5849</v>
+        <v>5851</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70598,10 +70031,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5850</v>
+        <v>5852</v>
       </c>
       <c r="D3037" t="s">
-        <v>5851</v>
+        <v>5853</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70615,10 +70048,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5852</v>
+        <v>5854</v>
       </c>
       <c r="D3038" t="s">
-        <v>5853</v>
+        <v>5855</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70632,10 +70065,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5854</v>
+        <v>5856</v>
       </c>
       <c r="D3039" t="s">
-        <v>5855</v>
+        <v>5857</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70649,10 +70082,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5856</v>
+        <v>5858</v>
       </c>
       <c r="D3040" t="s">
-        <v>5857</v>
+        <v>5859</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70666,10 +70099,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5858</v>
+        <v>5860</v>
       </c>
       <c r="D3041" t="s">
-        <v>5859</v>
+        <v>5861</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70683,10 +70116,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5860</v>
+        <v>5862</v>
       </c>
       <c r="D3042" t="s">
-        <v>5861</v>
+        <v>5863</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70700,10 +70133,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5862</v>
+        <v>5864</v>
       </c>
       <c r="D3043" t="s">
-        <v>5863</v>
+        <v>5865</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70717,10 +70150,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5864</v>
+        <v>5866</v>
       </c>
       <c r="D3044" t="s">
-        <v>5865</v>
+        <v>5867</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70734,10 +70167,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5866</v>
+        <v>5868</v>
       </c>
       <c r="D3045" t="s">
-        <v>5867</v>
+        <v>5869</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70751,10 +70184,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5868</v>
+        <v>5870</v>
       </c>
       <c r="D3046" t="s">
-        <v>5869</v>
+        <v>5871</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70768,10 +70201,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5870</v>
+        <v>5872</v>
       </c>
       <c r="D3047" t="s">
-        <v>5871</v>
+        <v>5873</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70785,10 +70218,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5872</v>
+        <v>5874</v>
       </c>
       <c r="D3048" t="s">
-        <v>3140</v>
+        <v>5875</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70802,10 +70235,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5873</v>
+        <v>5876</v>
       </c>
       <c r="D3049" t="s">
-        <v>5874</v>
+        <v>5877</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70819,10 +70252,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5875</v>
+        <v>5878</v>
       </c>
       <c r="D3050" t="s">
-        <v>1766</v>
+        <v>5879</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70836,10 +70269,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5876</v>
+        <v>5880</v>
       </c>
       <c r="D3051" t="s">
-        <v>5877</v>
+        <v>5881</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70853,10 +70286,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5878</v>
+        <v>5882</v>
       </c>
       <c r="D3052" t="s">
-        <v>5879</v>
+        <v>5883</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70870,10 +70303,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5880</v>
+        <v>5884</v>
       </c>
       <c r="D3053" t="s">
-        <v>5881</v>
+        <v>5885</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70887,10 +70320,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5882</v>
+        <v>5886</v>
       </c>
       <c r="D3054" t="s">
-        <v>5883</v>
+        <v>5887</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70904,10 +70337,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5884</v>
+        <v>5888</v>
       </c>
       <c r="D3055" t="s">
-        <v>5885</v>
+        <v>5889</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70921,10 +70354,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5886</v>
+        <v>5890</v>
       </c>
       <c r="D3056" t="s">
-        <v>5887</v>
+        <v>5891</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70938,10 +70371,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5888</v>
+        <v>5892</v>
       </c>
       <c r="D3057" t="s">
-        <v>5889</v>
+        <v>5893</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70955,10 +70388,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5890</v>
+        <v>5894</v>
       </c>
       <c r="D3058" t="s">
-        <v>5891</v>
+        <v>5895</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70972,10 +70405,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5892</v>
+        <v>5896</v>
       </c>
       <c r="D3059" t="s">
-        <v>5893</v>
+        <v>5897</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70989,10 +70422,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5894</v>
+        <v>5898</v>
       </c>
       <c r="D3060" t="s">
-        <v>5895</v>
+        <v>5899</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -71006,10 +70439,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5896</v>
+        <v>5900</v>
       </c>
       <c r="D3061" t="s">
-        <v>5897</v>
+        <v>5901</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -71020,13 +70453,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5898</v>
+        <v>5902</v>
       </c>
       <c r="C3062" t="s">
-        <v>5899</v>
+        <v>5903</v>
       </c>
       <c r="D3062" t="s">
-        <v>5900</v>
+        <v>5904</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -71040,10 +70473,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5901</v>
+        <v>5905</v>
       </c>
       <c r="D3063" t="s">
-        <v>5902</v>
+        <v>5906</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -71057,10 +70490,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5903</v>
+        <v>5907</v>
       </c>
       <c r="D3064" t="s">
-        <v>5904</v>
+        <v>5908</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71074,10 +70507,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5905</v>
+        <v>5909</v>
       </c>
       <c r="D3065" t="s">
-        <v>5906</v>
+        <v>5910</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71091,10 +70524,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5907</v>
+        <v>5911</v>
       </c>
       <c r="D3066" t="s">
-        <v>5908</v>
+        <v>5912</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71108,10 +70541,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5909</v>
+        <v>5913</v>
       </c>
       <c r="D3067" t="s">
-        <v>5910</v>
+        <v>5914</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71125,10 +70558,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5911</v>
+        <v>5915</v>
       </c>
       <c r="D3068" t="s">
-        <v>5912</v>
+        <v>5916</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71142,10 +70575,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5913</v>
+        <v>5917</v>
       </c>
       <c r="D3069" t="s">
-        <v>5914</v>
+        <v>5918</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71159,10 +70592,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5915</v>
+        <v>5919</v>
       </c>
       <c r="D3070" t="s">
-        <v>5916</v>
+        <v>5920</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71176,10 +70609,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5917</v>
+        <v>5921</v>
       </c>
       <c r="D3071" t="s">
-        <v>5918</v>
+        <v>5922</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71193,10 +70626,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5919</v>
+        <v>5923</v>
       </c>
       <c r="D3072" t="s">
-        <v>5920</v>
+        <v>5923</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71210,10 +70643,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5921</v>
+        <v>5924</v>
       </c>
       <c r="D3073" t="s">
-        <v>5922</v>
+        <v>5924</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71227,10 +70660,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5923</v>
+        <v>5925</v>
       </c>
       <c r="D3074" t="s">
-        <v>5924</v>
+        <v>5926</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71244,10 +70677,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5925</v>
+        <v>5927</v>
       </c>
       <c r="D3075" t="s">
-        <v>5926</v>
+        <v>5928</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71261,10 +70694,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5927</v>
+        <v>5929</v>
       </c>
       <c r="D3076" t="s">
-        <v>5928</v>
+        <v>3514</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71278,10 +70711,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5929</v>
+        <v>5930</v>
       </c>
       <c r="D3077" t="s">
-        <v>5930</v>
+        <v>5931</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71295,10 +70728,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5931</v>
+        <v>5932</v>
       </c>
       <c r="D3078" t="s">
-        <v>5932</v>
+        <v>4563</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71821,11 +71254,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5993</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5994</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71838,11 +71271,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5994</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71998,1672 +71431,6 @@
         <v>6012</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6020</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6021</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6022</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6023</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6026</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6028</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6042</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6080</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6082</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6083</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5898</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6093</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6093</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6110</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6125</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6132</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6150</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6158</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6159</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6160</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6161</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6162</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6163</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6164</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6168</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6169</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6170</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6171</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6172</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6173</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6174</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6175</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6176</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6177</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6178</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6179</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6180</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6181</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6182</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6183</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6184</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6185</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4361</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6186</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6187</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6188</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6189</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6190</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6191</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6192</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6193</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6194</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6195</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6196</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6197</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6198</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6199</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6200</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6201</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
